--- a/public/docs/DataPLANT_2026CommunityCall_BudgetTemplate.xlsx
+++ b/public/docs/DataPLANT_2026CommunityCall_BudgetTemplate.xlsx
@@ -1,43 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nfdi4plant.sharepoint.com/sites/speaker2.0/Freigegebene Dokumente/General/CommunityCall/2026/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{393FAEBF-8A6B-4CF1-B820-BB5EDE7771EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272B4BE9-F330-439E-A06C-6E7FA6B9F8B4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="community call" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Community Call 2026</t>
+  </si>
+  <si>
+    <t>Proposal Title</t>
+  </si>
+  <si>
+    <t>Main Applicant</t>
+  </si>
+  <si>
+    <t>Important notes:</t>
+  </si>
+  <si>
+    <t>* Costs must be reported annually</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of Funding </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>(Co-)Applicant Institution(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Budget </t>
+  </si>
+  <si>
+    <t>* The total budget may not exceed a framework of 10.000 - 70.000 € per running year</t>
+  </si>
+  <si>
+    <t>* Please specify the type of funding (personnel/direct costs)</t>
+  </si>
+  <si>
+    <t>* Please provide a brief description</t>
+  </si>
+  <si>
+    <t>* The DFG usage guidelines for NFDI apply here. The latest versions of these and other guidelines, forms, and additional information regarding the NFDI can be found here:</t>
+  </si>
+  <si>
+    <t>https://www.dfg.de/en/research-funding/funding-initiative/nfdi</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4FB3D9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4FB3D9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFB7B7B7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4FB3D9"/>
+        <bgColor rgb="FF4FB3D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -45,15 +189,637 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,21 +834,60 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2009775" cy="942975"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -106,79 +911,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -321,23 +1066,1230 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F968"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="40.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44">
+        <v>2026</v>
+      </c>
+      <c r="E20" s="45">
+        <v>2027</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="59">
+        <f>SUM(D22:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="59">
+        <f>SUM(E22:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="60">
+        <f>SUM(D26:E26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" xr:uid="{54D40093-E1A8-4B8D-9DCD-D48C1EC77120}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -542,22 +2494,22 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <TaxCatchAll xmlns="e8188cab-639c-4efb-98ed-8f1510484245" xsi:nil="true"/>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e3945cb-8279-4f8c-9891-3fbd00782851">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e8188cab-639c-4efb-98ed-8f1510484245" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B607BD0F-0C0D-4743-AB12-AE2DF5DCF6B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D59687D-EAFD-4DD8-A379-29DC10E3D0FE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B4AAB3-1B7B-45F5-9052-9C62570C41AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BAA745B-9944-4483-B029-23972C20EF8B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8364D518-4CFB-4C27-A130-9BA46DADC07F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{779C5B7B-B408-4C36-A8E1-BE4D4D67DF4B}"/>
 </file>